--- a/SchedulingData/dynamic12/pso/scheduling1_3.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_3.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.5</v>
+        <v>53.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.64</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="D3" t="n">
-        <v>82.73999999999999</v>
+        <v>102.16</v>
       </c>
       <c r="E3" t="n">
-        <v>26.876</v>
+        <v>22.104</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.52</v>
+        <v>69.62</v>
       </c>
       <c r="E4" t="n">
-        <v>26.528</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71.52</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>122.26</v>
+        <v>49.12</v>
       </c>
       <c r="E5" t="n">
-        <v>23.564</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="6">
@@ -542,36 +542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>71.64</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.976</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82.73999999999999</v>
+        <v>69.62</v>
       </c>
       <c r="D7" t="n">
-        <v>146.14</v>
+        <v>132.64</v>
       </c>
       <c r="E7" t="n">
-        <v>24.156</v>
+        <v>23.976</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>100.28</v>
+        <v>58.6</v>
       </c>
       <c r="E8" t="n">
-        <v>23.792</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>69.62</v>
+        <v>47.54</v>
       </c>
       <c r="E9" t="n">
-        <v>27.168</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.54</v>
       </c>
       <c r="D10" t="n">
-        <v>46.2</v>
+        <v>124.34</v>
       </c>
       <c r="E10" t="n">
-        <v>26.58</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>69.62</v>
+        <v>49.12</v>
       </c>
       <c r="D11" t="n">
-        <v>152.44</v>
+        <v>119</v>
       </c>
       <c r="E11" t="n">
-        <v>22.956</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>146.14</v>
+        <v>124.34</v>
       </c>
       <c r="D12" t="n">
-        <v>214.8</v>
+        <v>179.12</v>
       </c>
       <c r="E12" t="n">
-        <v>20.88</v>
+        <v>18.508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152.44</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>222.32</v>
+        <v>138.74</v>
       </c>
       <c r="E13" t="n">
-        <v>19.548</v>
+        <v>23.896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46.2</v>
+        <v>58.6</v>
       </c>
       <c r="D14" t="n">
-        <v>93.90000000000001</v>
+        <v>130.3</v>
       </c>
       <c r="E14" t="n">
-        <v>23.94</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>122.26</v>
+        <v>102.16</v>
       </c>
       <c r="D15" t="n">
-        <v>201.86</v>
+        <v>157.9</v>
       </c>
       <c r="E15" t="n">
-        <v>20.204</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100.28</v>
+        <v>179.12</v>
       </c>
       <c r="D16" t="n">
-        <v>158.08</v>
+        <v>263.62</v>
       </c>
       <c r="E16" t="n">
-        <v>19.632</v>
+        <v>15.148</v>
       </c>
     </row>
     <row r="17">
@@ -751,74 +751,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>201.86</v>
+        <v>132.64</v>
       </c>
       <c r="D17" t="n">
-        <v>273.42</v>
+        <v>180.14</v>
       </c>
       <c r="E17" t="n">
-        <v>15.668</v>
+        <v>21.336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>158.08</v>
+        <v>157.9</v>
       </c>
       <c r="D18" t="n">
-        <v>210.68</v>
+        <v>209.62</v>
       </c>
       <c r="E18" t="n">
-        <v>15.012</v>
+        <v>16.588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>71.64</v>
+        <v>130.3</v>
       </c>
       <c r="D19" t="n">
-        <v>136.52</v>
+        <v>195.82</v>
       </c>
       <c r="E19" t="n">
-        <v>23.128</v>
+        <v>19.328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>210.68</v>
+        <v>209.62</v>
       </c>
       <c r="D20" t="n">
-        <v>262.62</v>
+        <v>254.72</v>
       </c>
       <c r="E20" t="n">
-        <v>11.448</v>
+        <v>13.708</v>
       </c>
     </row>
     <row r="21">
@@ -827,340 +827,340 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>136.52</v>
+        <v>138.74</v>
       </c>
       <c r="D21" t="n">
-        <v>190.16</v>
+        <v>188.52</v>
       </c>
       <c r="E21" t="n">
-        <v>19.384</v>
+        <v>20.048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>214.8</v>
+        <v>195.82</v>
       </c>
       <c r="D22" t="n">
-        <v>269.12</v>
+        <v>243.8</v>
       </c>
       <c r="E22" t="n">
-        <v>18.548</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>190.16</v>
+        <v>180.14</v>
       </c>
       <c r="D23" t="n">
-        <v>222.52</v>
+        <v>230.14</v>
       </c>
       <c r="E23" t="n">
-        <v>16.788</v>
+        <v>17.976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>93.90000000000001</v>
+        <v>263.62</v>
       </c>
       <c r="D24" t="n">
-        <v>149.1</v>
+        <v>339.98</v>
       </c>
       <c r="E24" t="n">
-        <v>20.04</v>
+        <v>12.132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>222.32</v>
+        <v>188.52</v>
       </c>
       <c r="D25" t="n">
-        <v>278.94</v>
+        <v>245.08</v>
       </c>
       <c r="E25" t="n">
-        <v>16.996</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>149.1</v>
+        <v>119</v>
       </c>
       <c r="D26" t="n">
-        <v>187.28</v>
+        <v>161.54</v>
       </c>
       <c r="E26" t="n">
-        <v>17.352</v>
+        <v>19.256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>273.42</v>
+        <v>254.72</v>
       </c>
       <c r="D27" t="n">
-        <v>316.64</v>
+        <v>311.38</v>
       </c>
       <c r="E27" t="n">
-        <v>12.476</v>
+        <v>9.172000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>187.28</v>
+        <v>243.8</v>
       </c>
       <c r="D28" t="n">
-        <v>232.48</v>
+        <v>281.16</v>
       </c>
       <c r="E28" t="n">
-        <v>14.472</v>
+        <v>14.044</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>262.62</v>
+        <v>245.08</v>
       </c>
       <c r="D29" t="n">
-        <v>316.46</v>
+        <v>290.68</v>
       </c>
       <c r="E29" t="n">
-        <v>8.664</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>316.46</v>
+        <v>311.38</v>
       </c>
       <c r="D30" t="n">
-        <v>362.82</v>
+        <v>365.58</v>
       </c>
       <c r="E30" t="n">
-        <v>5.648</v>
+        <v>6.852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>232.48</v>
+        <v>281.16</v>
       </c>
       <c r="D31" t="n">
-        <v>292.9</v>
+        <v>357.6</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>316.64</v>
+        <v>161.54</v>
       </c>
       <c r="D32" t="n">
-        <v>371.34</v>
+        <v>224.94</v>
       </c>
       <c r="E32" t="n">
-        <v>9.616</v>
+        <v>16.536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>362.82</v>
+        <v>224.94</v>
       </c>
       <c r="D33" t="n">
-        <v>424.22</v>
+        <v>279.94</v>
       </c>
       <c r="E33" t="n">
-        <v>2.108</v>
+        <v>13.676</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>269.12</v>
+        <v>290.68</v>
       </c>
       <c r="D34" t="n">
-        <v>321.22</v>
+        <v>366.78</v>
       </c>
       <c r="E34" t="n">
-        <v>14.468</v>
+        <v>9.552</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>278.94</v>
+        <v>339.98</v>
       </c>
       <c r="D35" t="n">
-        <v>317.94</v>
+        <v>386</v>
       </c>
       <c r="E35" t="n">
-        <v>14.716</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>222.52</v>
+        <v>365.58</v>
       </c>
       <c r="D36" t="n">
-        <v>288.88</v>
+        <v>430.04</v>
       </c>
       <c r="E36" t="n">
-        <v>13.252</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>288.88</v>
+        <v>357.6</v>
       </c>
       <c r="D37" t="n">
-        <v>370.58</v>
+        <v>406.7</v>
       </c>
       <c r="E37" t="n">
-        <v>10.172</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>321.22</v>
+        <v>279.94</v>
       </c>
       <c r="D38" t="n">
-        <v>365.62</v>
+        <v>314.56</v>
       </c>
       <c r="E38" t="n">
-        <v>12.148</v>
+        <v>11.344</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>371.34</v>
+        <v>230.14</v>
       </c>
       <c r="D39" t="n">
-        <v>437.18</v>
+        <v>300.34</v>
       </c>
       <c r="E39" t="n">
-        <v>6.652</v>
+        <v>14.076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>292.9</v>
+        <v>366.78</v>
       </c>
       <c r="D40" t="n">
-        <v>362.36</v>
+        <v>410.82</v>
       </c>
       <c r="E40" t="n">
-        <v>8.664</v>
+        <v>6.768</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>365.62</v>
+        <v>314.56</v>
       </c>
       <c r="D41" t="n">
-        <v>450.02</v>
+        <v>360.5</v>
       </c>
       <c r="E41" t="n">
-        <v>8.788</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
   </sheetData>
